--- a/assets/examples/2/Tarefas.xlsx
+++ b/assets/examples/2/Tarefas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Rdc2a400d69ea4f68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="R9b93f17f171a4a53"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2849,7 +2849,7 @@
         <x:v>04/02/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>533,9h</x:v>
+        <x:v>534,3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2858,7 +2858,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>75,1h</x:v>
+        <x:v>75,5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2924,34 +2924,34 @@
         <x:v>0h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3,1h</x:v>
+        <x:v>3,8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>4,5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5,3h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>5,2h</x:v>
+        <x:v>5,1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5,1h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>6,3h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>
